--- a/data/smi.xlsx
+++ b/data/smi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1228">
   <si>
     <t>control_number</t>
   </si>
@@ -2633,7 +2633,40 @@
     <t>&lt;b&gt;Background:&lt;/b&gt; YS-ON-001 is a complex containing synthetic double-strand RNA, a toll-like receptor 3 (TLR3) agonist. TLR3 agonist stimulates antigen-presenting cells, increases T, NK, NKT cells and decreases regulatory T cells (Tregs) and myeloid-derived suppressor cells (MDSCs), reprogrames macrophages from protumorigenic to anti-tumor. YS-ON-001 is being evaluated for systemic and intratumoral use alone or combined with checkpoint inhibitor to treat cancer.&lt;br /&gt;&lt;b&gt;Method: &lt;/b&gt;The anti-tumor efficacy of systemically or intratumorally (&lt;i&gt;it&lt;/i&gt;) injected YS-ON-001 alone or in combination with PD-1 antagonist was assessed in several syngeneic tumor models including pancreatic cancer, hepatocellular carcinoma. Tumors were implanted into left and/or right flanks while only one tumor was injected with YS-ON-001. YS-ON-001 was administered by IM injection every other day or &lt;i&gt;it&lt;/i&gt; injection twice a week. Murine PD-1 antibody was infused intraperitoneally (&lt;i&gt;ip&lt;/i&gt;) once a week. In addition to body weight, tumor volume was monitored on both flanks. Surviving mice with unnoticeable tumor were rechallenged. Flow cytometry was used to analyze immune cells from the tumors including T, NK, NKT cells, macrophages 1 and 2, Tregs, and MDSCs.&lt;br /&gt;&lt;b&gt;Results:&lt;/b&gt; Within tumor microenvironment YS-ON-001 IM monotherapy resulted in increased infiltration of CD4+ T cells and CD8+ T cells, NK cells and NKT cells, reduced Tregs and MDSCs, and increased the M1/M2 ratio, leading to significant tumor growth inhibition in more than 10 cancer models. Combination of YS-ON-001 im with anti-PD1 ip resulted in greater anti-tumor efficacy compared to anti-PD1 monotherapy in both 4T1 breast cancer and LLC2 lung cancer models. Rejecting tumor rechallenge in surviving mice from the initial challenge treated with IM YS-ON-001suggested long-term anti-tumor immunity. Monotherapy of YS-ON-001&lt;i&gt; it &lt;/i&gt;or anti-PD-1 &lt;i&gt;ip&lt;/i&gt; significantly suppresses tumor growth not only at the primary injection site, but also at uninjected site (p&lt;0.05). Combination of YS-ON-001 &lt;i&gt;it &lt;/i&gt;with anti-PD-1 &lt;i&gt;ip&lt;/i&gt; significantly enhanced suppressive effect of anti-PD1 at both primary injected and distant uninjected sites.&lt;br /&gt;&lt;b&gt;Conclusions:&lt;/b&gt; these experiments demonstrated systemic or intratumoral delivery of YS-ON-001 can modulates immune responses in tumor microenvironment by increasing anti-tumor cells in T, NK , NKt cells and decreasing pro-tumor cells in Treg, MDSC, leading to significant tumor growth inhibition. Combination of YS-on-001, IM or It with PD-1 antibodies significantly enhanced the anti-tumor efficacy of PD-1 antibodies. These results provide a strong rationale and support clinical development as standalone therapy or in combination with other modalities such checkpoint inhibitors.</t>
   </si>
   <si>
-    <t>&lt;em&gt;under embargo&lt;/em&gt;</t>
+    <t>&lt;b&gt;Background&lt;/b&gt;: In an open-label, phase Ib dose-finding and dose-expansion study in pts with aRCC, AXI+PEMBRO was tolerable; objective response rate (ORR) was 73.1%, and median progression free survival (mPFS) was 20.9 months (Lancet Oncol. 2018;19:405-15). These planned exploratory analyses evaluated candidate biomarkers that may confer sensitivity/resistance to AXI+PEMBRO.&lt;br /&gt;&lt;b&gt;Materials &amp; Methods&lt;/b&gt;: Tumor tissue (de novo biopsy or archival), serum and whole blood samples were collected at baseline (BL). Biomarkers were chosen based on known angiogenesis/immunomodulation roles. Clinical outcomes included ORR and PFS. Comparisons for responders vs non-responders were made using Wilcoxon rank sum test. Comparisons of PFS for &lt;median vs ≥median analyte values were made using Kaplan-Meier analysis. All statistical analyses were univariate. For T-cell receptor (TCR) repertoire sequencing analysis, richness, a measure of the number of different species in a repertoire, was assessed using the Daley-Smith estimate (Nat Methods. 2013;10:325-7). Dose-finding and dose-expansion cohorts were analysed together.&lt;br /&gt;&lt;b&gt;Results&lt;/b&gt;: 52 pts were treated. Tumor tissue, serum and whole blood samples were analyzed from 39 (75.0%), 51 (98.1%) and 52 (100%) pts, respectively. Immunohistochemical analysis of tumor tissue biomarkers revealed no significant associations between CD68, CD8 or PD-L1 levels at BL and ORR or PFS. However, pts whose tumor CD8 % positive cells was ≥median had a numerically longer PFS than pts whose CD8 % positive cells was &lt;median (median PFS 26.2 vs 15.4 months, respectively; hazard ratio (HR): 0.4; 95% CI: 0.2, 1.2; unadjusted 2-sided p=0.091). For serum biomarkers, higher CXCL10 levels at BL were associated with better ORR (2-sided p=0.0197; false discovery rate-adjusted p=0.2235). In addition, pts with BL CEACAM1 levels ≥median (26.0ng/mL) had a numerically longer PFS (HR: 0.5; 95% CI: 0.2, 1.1; unadjusted 2-sided p=0.085). There was no association between BL levels of other serum biomarkers and ORR or PFS. Whole blood sample assessment of TCR repertoire dynamics showed no association with clinical outcomes. While the Daley-Smith richness estimate at BL was not associated with ORR, the Daley-Smith estimates at cycle 2, day 1 and end of treatment showed a trend toward greater richness estimate being associated with better response (unadjusted p-values = 0.0866 and 0.0324, respectively).&lt;br /&gt;&lt;b&gt;Conclusions&lt;/b&gt;: In pts with aRCC, higher tumor levels of CD8 and serum levels of CXCL10 and CEACAM1 at BL may indicate potential sensitivity to AXI+PEMBRO treatment. Further validation of the value of these biomarkers in an independent cohort with a large sample size is warranted.</t>
+  </si>
+  <si>
+    <t>Cancer immunotherapy with PD-1/PD-L1 antibody drugs has made tremendous progress in clinical application. It was also recognized by the scientific community with awarding of the 2018 Nobel Price. However, the discovery of orally active, small molecule drugs targeting PD-1/PD-L1 pathway remains highly challenging. We wish to report for the first time the similar efficacy as measured by TGI between small molecule inhibitor Max-10181 and Durvalumab in the head to head test of human PD-L1 knock-in MC38 cell line in human PD-1 knock-in mice. In addition, we would also like to report the superior efficacy of Max-10181 to mouse anti-PD-1 Ab in PD-L1 expression low syngeneic mouse 4T1 model. Our data indicated that small molecule drugs may have different dependency of PD-L1 expression level. As a result, they may have different therapeutic application in clinics. Furthermore, the data related to the mechanistic aspect of these observed results will also be discussed.</t>
+  </si>
+  <si>
+    <t>CV8102 comprises a single-stranded non-coding RNA complexed with a cationic peptide. It acts as an agonist to TLR-7/-8 and RIG-I (Ziegler 2018) to stimulate the innate and adaptive immune system. CV8102 was shown to induce an upregulation of inflammatory cytokines, chemokines and IFN-γ related genes at the injection site along with an activation of T, NK, NKT and migratory dendritic cells in the draining lymph nodes (Heidenreich 2015). Intratumoral (IT) CV8102 demonstrated dose-dependent anti-tumor activity and synergized with systemic PD-1 inhibition in preclinical models.&lt;br /&gt;&lt;b&gt;Methods&lt;/b&gt; This Phase I study investigates IT CV8102 as single agent and in combination with systemic anti-PD-1 antibodies (as per product label). Patients (pts) with advanced inoperable melanoma (MEL), cutaneous/head and neck squamous cell or adenoid cystic carcinoma (cSCC, SCCHN, ACC) are eligible for single agent CV8102, pts with MEL and SCCHN who did not respond or slowly progressed on anti-PD-1 therapy are eligible for the combination. CV8102 is administered for up to 8 IT injections into a single accessible tumor lesion over a 12‑week period. A Bayesian logistic regression model with overdose control is used for the dose escalation parts. Response is assessed by RECIST 1.1/irRECIST (injected and non-injected target lesions). Pre‐ and on‐treatment samples are collected for biomarker analyses.&lt;br /&gt;&lt;b&gt;&lt;/b&gt;&lt;b&gt;Results&lt;/b&gt; A total of 20 pts have been treated with either CV8102 alone (N=15: 6 MEL, 2 SCCHN, 5 ACC, 2 cSCC) or CV8102 in combination with anti-PD-1 (N=5: 4 MEL, 1 SCCHN). Dose cohorts with doses up to 150 µg (CV8102 alone) and 100µg (CV8102+anti-PD-1) have been completed. Most common AEs were mild to moderate flu-like symptoms and injection site reactions. No dose limiting toxicities (DLT) were observed during the DLT period of the first two weeks of treatment. 12 pts treated with CV8102 alone were evaluable for response assessment. 1 MEL pt treated at 150µg experienced a complete regression of injected and non-injected lesions. This patient also experienced a marked increase of IL-6 and CRP at 6 and 24 hours after the first injection, respectively. 7 pts achieved stable disease, with two pts treated at 100 µg (SCCHN pt) and 200µg (MEL pt who had developed acquired resistance to previous anti-PD-1 therapy) showing regression of non-injected lymph node lesions. Dose escalation parts are continuing, updated safety and efficacy results will be presented.&lt;br /&gt;&lt;b&gt;Conclusion&lt;/b&gt; Intratumoral single agent CV8102 appears well tolerated and showed preliminary evidence of clinical efficacy with shrinkage of injected and non-injected lesions.</t>
+  </si>
+  <si>
+    <t>Background&lt;br /&gt;Exicure develops spherical nucleic acid (SNA) constructs, which are 3-dimensional arrangements of oligonucleotides where the nucleic acids are densely packed and radially oriented around a nanoparticle. SNAs have properties that are distinct from the “linear” nucleic acids (i.e., nucleic acids not arranged in the SNA format), which include, most importantly, increased cellular uptake compared to linear nucleic acids.&lt;br /&gt;AST-008 is an SNA configuration of a toll-like receptor 9 (TLR9) agonist oligonucleotide, designed to trigger anti-tumor immune responses in patients with cancer. AST-008 is intended to be administered intratumorally in combination with checkpoint inhibitors for the treatment of solid tumors.&lt;br /&gt;AST-008 has potent antitumor activity as a monotherapy and synergizes with anti-PD-1 antibody therapy in several preclinical tumor models.&lt;br /&gt;Materials and Methods&lt;br /&gt;AST-008 has been evaluated in a Phase 1 study (Protocol number: AST-008-101). The safety, tolerability, pharmacokinetics and pharmacodynamics of single ascending doses of AST-008 were studied in healthy volunteers. Four dose levels of AST-008 were evaluated in four cohorts.&lt;br /&gt;Results&lt;br /&gt;The results indicated that AST-008 was safe and well tolerated after single subcutaneous injections. No serious adverse events or dose limiting toxicity were reported. The most common adverse events observed were flu-like symptoms, injection site reactions, and reversible, short-lived leukopenia and neutropenia.&lt;br /&gt;AST-008 induced an innate immune response after administration to healthy volunteers. Cytokine and chemokine analysis indicated that a Th1-type immune response was elicited. IL-12 (p40), IL-1RA, IL-6, IP-10, and MCP-1 were consistently induced across all doses. AST-008 elicited 9.5 fold and 3.5 fold increases in the fraction of activated T cells and natural killer cells, respectively, compared to baseline at the highest dose tested. These results suggest that the cytokines and immune cell activation elicited by AST-008 will initiate and propagate the cancer immunity cycle in the presence or absence of checkpoint inhibitors. Pharmacokinetic analysis revealed that the concentration of AST-008 in plasma peaked 2 hours after dosing and was dose proportional.&lt;br /&gt;Conclusions&lt;br /&gt;AST-008 elicited no serious adverse events or dose limiting toxicity at the doses tested. AST-008 is a potent innate immune activator and exhibits pharmacodynamic properties that are expected to result in anti-tumor effects in patients with cancer. A Phase 1b/2 study of AST-008 in combination with pembrolizumab in cancer patients is ongoing.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Purpose: &lt;/b&gt;Recent randomized trials in advanced TNBC have demonstrated improved efficacy with the addition of atezo to 1L nab-PAC in patients (pts) with PD-L1+ tumors (IMpassion130 [Schmid 2018]), and with the addition of the oral AKT inhibitor IPAT to 1L PAC, particularly in pts with &lt;i&gt;PIK3CA/AKT1/PTEN&lt;/i&gt;-altered tumors (LOTUS [Kim 2017]). Loss of PTEN, a negative regulator of AKT, has emerged as a potential mechanism for resistance to checkpoint inhibitor therapy; inhibiting the PI3K/AKT pathway has led to reversal of T-cell-mediated immunotherapy resistance [Peng 2016]. We report first results from a multicenter phase 1b study (NCT03800836) evaluating a triplet of IPAT, atezo, and PAC or nab-PAC.&lt;br /&gt;&lt;b&gt;Methods: &lt;/b&gt;Eligible pts had measurable unresectable locally advanced/metastatic TNBC, ECOG performance status 0/1, and no prior systemic therapy for advanced disease. Pts were assigned to PAC 80 mg/m&lt;sup&gt;2 &lt;/sup&gt;(Arm A) or nab-PAC 100 mg/m&lt;sup&gt;2 &lt;/sup&gt;(Arm B), both given on days 1, 8, &amp; 15, in combination with oral IPAT 400 mg/day on days 1-21 and IV atezo 840 mg on days 1 &amp; 15. Cycles were repeated every 28 days until loss of clinical benefit, unacceptable toxicity, or consent withdrawal. After establishing tolerability in a safety run-in (n=6), each arm was expanded to a total of 20 pts. The primary efficacy endpoint is confirmed objective response rate (ORR) per RECIST v1.1. Tumors are assessed every 8 weeks.&lt;br /&gt;&lt;b&gt;Results: &lt;/b&gt;We report preliminary efficacy and safety data up to Jan 5, 2019, for the first 26 pts enrolled (18 PAC, 8 nab-PAC). The median duration of follow-up was 6.1 (range 3.1-10.6) months. Confirmed responses were seen in 19/26 pts, giving a confirmed ORR of 73% (95% CI 53­-88%). Responses were seen irrespective of PD-L1 status (9/11 [82%] PD-L1+; 6/8 [75%] PD-L1-; 4/7 [57%] PD-L1 unknown) or &lt;i&gt;PIK3CA/AKT1/PTEN &lt;/i&gt;alteration status (5/7 [71%] Dx+, 9/11 [82%] Dx-; 5/8 [63%] Dx unknown). Treatment was generally tolerable. Grade ≥3 adverse events occurred in 14 pts (54%). The most common all-grade adverse events were diarrhea (88%; grade ≥3 19%, manageable with loperamide; no colitis was reported) and rash (including pruritic, pustular, and maculopapular rash and drug eruption: 69%; grade ≥3 27%, manageable and reversible with antihistamine and steroids). The most severe rash was grade 3 and typically occurred in cycle 1. Hyperglycemia was absent. Enrollment is ongoing.&lt;br /&gt;&lt;b&gt;Conclusions: &lt;/b&gt;The triplet regimen shows promising antitumor activity (73% confirmed ORR), irrespective of biomarker status, and has manageable toxicity. &lt;b&gt;&lt;/b&gt;This triplet regimen warrants further investigation.&lt;br /&gt;&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;BACKGROUND: &lt;/b&gt;Indoleamine 2,3-dioxygenase 1 (IDO1) and the related enzyme tryptophan 2,3-dioxygenase 2 (TDO2) are enzymes that mediate the rate limiting step in the metabolism of tryptophan (Trp) into the immunosuppressive metabolite kynurenine (Kyn). The accumulation of Kyn suppresses effector T and activates suppressor T regs generating an immune suppressive environment and escape mechanism for anti-PD-L1/anti-PD-1 agents. While both enzymes are upregulated in various tumors, the expression of IDO1 and TDO2 in human cancers is distinct and not overlapping, suggesting that the use of dual inhibitor should provide an enhanced anti-tumor effect. This is a first in human Phase I study investigating the safety, PK, pharmacodynamic effect and preliminary clinical activity of M4112, a highly selective dual IDO1/TDO2 inhibitor.&lt;br /&gt;&lt;b&gt;PATIENTS AND METHODS:&lt;/b&gt; Patients with advanced solid malignancies were treated with M4112 (100, 200, 400, 600, or 800mg twice daily [BID] oral). The dose-escalation evaluated patients in 28-day cycles. Treatment was continued until disease progression, or unacceptable toxicity.&lt;br /&gt;&lt;b&gt;RESULTS:&lt;/b&gt; 15 patients were enrolled. One dose-limiting toxicity (DLT) occurred at 800 mg BID (grade 3, rash, with fever and hypotension). The adverse events regardless of causality in &gt;20% of patients were fatigue, nausea, rash, cough, CK increase, vomiting, diarrhea and decreased appetite. Exposure for 100mg and 200mg doses were proportional, with greater than proportional increase in exposure observed at 400mg and 600mg but less than proportional increase at 800mg. The observed Cmin (C1D15) at doses ≥ 400mg BID was above the IC50 based on animal studies. M4112 treatment resulted in dose-dependent IDO1 inhibition in ex vivo stimulated blood with approximately &gt;90% IDO1 activity inhibited throughout the dosing period at 800mg BID. In contrast, M4112 did not show sustained reduction of plasma Kyn levels up to 800mg BID: 12-35% decrease in plasma Kyn levels were observed on C1D1 up to 6h post dosing, that returned to or exceeded baseline values on C1D15. Consistent with preclinical findings, the plasma Trp increased during C1D1 at dose levels ≥200mg, suggesting liver TDO2 inhibition responsible for this increase. There were no objective responses, however in 7 of 15 cancer patients time until documented progressive disease was ≥16 weeks. These are preliminary data.&lt;br /&gt;&lt;b&gt;CONCLUSIONS:&lt;/b&gt; M4112 was generally well tolerated, with stable disease as best response. M4112 achieved &gt;90% IDO1 inhibition in ex vivo stimulated blood assay. Unlike IDO1 specific inhibitors, ex vivo IDO1 inhibition did not translate into plasma Kyn reduction following M4112 treatment. This is the first report of a dual inhibition of IDO1 and TDO2 showing acceptable safety profile and prolonged time to progression in cancer patients. Further investigation is warranted.</t>
+  </si>
+  <si>
+    <t>Breast cancer (BC) was considered an immunologically silent tumor, however recent findings suggest that immune cells present in the tumor microenvironment play important roles in tumor growth. Retinoid X receptors (RXRs) are a subclass of nuclear receptors that act as ligand-dependent transcription factors that regulate a variety of cellular processes including proliferation and differentiation. Rexinoids are synthetic molecules that bind and activate RXRs. Bexarotene (Targretin&lt;sup&gt;®&lt;/sup&gt;) is the only rexinoid approved by the FDA for the treatment of refractory cutaneous T-cell lymphoma. Other more potent rexinoids have been synthesized, such as LG100268 (LG268) and LG101506. Because recent studies have suggested that RXRs are involved in immune regulation, we studied the effects of LG268 as an immune modulator in a preclinical model of breast cancer. MMTV-Neu mice with tumors approximately 32 mm&lt;sup&gt;3 &lt;/sup&gt;in volume were treated with control diet or LG268 (100 mg/kg diet) for 5 days. Rexinoid treatment significantly (&lt;i&gt;p=0.0047&lt;/i&gt;) reduced tumor weight from 3.2% of body weight in the control group to 1.1% in the treated group. Bexarotene (100 mg/kg diet), however, did not reduce tumor weight even after 10 days of treatment. Analysis of the tumor by flow cytometry showed a significant (&lt;i&gt;p=0.0013&lt;/i&gt;) reduction in the percentage of myeloid derived suppressor cells (MDSCs) in the treated mice (3.4% vs 1.6%). MDSCs are associated with a lack of immune surveillance against tumor cells, and in BC, are correlated with higher metastatic burden and poor survival. The reduction in MDSCs was accompanied by a 80% reduction in p-STAT1 (&lt;i&gt;p=0.02)&lt;/i&gt;. The percentage of activated CD4 T cells (CD45, CD3, CD4, CD25) also decreased when mice were treated with LG268 (27.5% vs 13%; &lt;i&gt;p=0.012&lt;/i&gt;). Moreover, the ratio of CD8/CD4, CD25 cells was increased in the tumors of treated mice (1.58 vs 3.07; &lt;i&gt;p=0.04&lt;/i&gt;), suggesting increased activation of cytotoxic T cells. Higher CD8/CD4, CD25 ratios correlate with better outcomes in patients with several solid tumors. To further elucidate the effects of LG268 on immunosuppressive T cells, CD4 cells were isolated from spleen and stimulated with CD28, IL-2 and TGFβ, skewing the cells towards regulatory T cells. CD4 Treg FOXP3 expressing cells contribute to the immunosuppressive milieu in tumors. Treatment with LG268 at 100 nM reduced the mRNA expression of FOXP3 by 40% &lt;i&gt;(p=0.03) &lt;/i&gt;when compared with untreated CD4 T cells. In the MMTV-PyMT model of triple negative BC, LG268 (100 mg/kg diet) significantly (&lt;i&gt;p=0.018&lt;/i&gt;) extended survival by an average of 29 days when compared with the controls. Histopathological analysis revealed that tumors treated with LG268 had higher infiltration of CD8 cytotoxic T cells, which correlated with increased cleaved caspase 3. These results show that RXR agonists can be used to modulate immune cell populations present in the tumor microenvironment, and reduce immunosuppressive MDSC cells and CD4 T regulatory cell populations in breast cancer models. We thank the Breast Cancer Research Foundation for support.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background:&lt;/b&gt; Small cell lung cancer (SCLC), the most aggressive form of lung cancer, shows poor response rates to immunotherapy targeting the programmed cell death protein 1 pathway (PD-(L)1). Our group previously discovered that SCLC exhibits high expression of checkpoint kinase 1 (CHK1) and that the CHK1 inhibitor SRA737 activates the innate immune STING pathway, demonstrating robust anti-tumor activity and synergy in combination with anti-PD-L1 in an SCLC model.&lt;i&gt;&lt;/i&gt; As SRA737 is being tested in SCLC patients in combination with low dose gemcitabine (LDG), we evaluated the efficacy and immune correlates (including macrophages associated with resistance to immune checkpoint blockade) of the SRA737+LDG regimen in combination with anti-PD-L1 in an SCLC model.&lt;br /&gt;&lt;b&gt;Results: &lt;/b&gt;&lt;i&gt;Trp53, Rb1 &lt;/i&gt;and &lt;i&gt;p130&lt;/i&gt; (RPP) triple knockout SCLC cells were implanted into the flank of B6129F1 immunocompetent mice. After the mice developed tumors, they were treated with single agents or various drug combinations. Anti-PD-L1 and LDG demonstrated minimal effect on tumor growth as single agents and only a modest effect as a combination. Moderate to strong anti-tumor activity was however observed with SRA737 monotherapy which directly correlated with dosing intensity. The most profound and synergistic anti-tumor activity was observed when anti-PD-L1 was combined with the SRA737+LDG regimen, with all animals showing durable regressions. Analysis of tumor infiltrating immune cells at the end of this treatment regimen showed a dramatic induction of cytotoxic T-cells and a reduction of exhausted and regulatory T cells. Similarly, pro-inflammatory M1 type macrophages and dendritic cells were increased while immunosuppressive M2 type macrophages and MDSC cells were dramatically decreased. As monotherapy, the more dose intensive SRA737 schedule resulted in similar effects on lymphocytes when combined with anti-PD-L1. These effects are consistent with our previous data showing that SRA737 treatment leads to an induction of STING and type I interferon signaling in tumors, which is associated with the establishment of an anti-tumor immune microenvironment.&lt;br /&gt;&lt;b&gt;Discussion:&lt;/b&gt; Our findings suggest that the combination of anti-PD-L1 with the SRA737+LDG regimen may represent the optimal implementation of these agents, leading to a dramatic anti-tumor activity accompanied by the establishment of a strong anti-tumor immune microenvironment. Given that anti-PD-(L)1 drugs are approved but show limited efficacy in SCLC, our preclinical data provide a strong rationale for combining these agents with the SRA737+LDG regimen to enhance clinical response rates.</t>
+  </si>
+  <si>
+    <t>BACKGROUND&lt;br /&gt;Innate immune signaling mediated through STING (Stimulator of Interferon Genes) generates a Type I interferon (Type 1 IFN) signal that increases T cell infiltration into cold or non-inflamed tumors leading to significant regression (Woo et al., 2015). Comprehensive data from one of our STING agonists was presented at the AACR Tumor Immunology meeting in 2017. Here we describe CRD5500, a versatile next generation compound that can be dosed either by intra-tumoral route, systemically (IV or SC) or as an antibody drug conjugated to Trastuzumab (ADC). The ADC approach allows for tumor targeting through systemic delivery with low systemic exposure of the payload and should result in a higher Therapeutic Index (TI) in the clinic.&lt;br /&gt;METHODS&lt;br /&gt;We have described the discovery of small molecule activators of human STING that generate potent anti-tumor innate and adaptive responses in recently published patents. CRD 5500 was evaluated in (1) in reporter gene assays on HEK293T cells containing stably transfected hSTING polymorphs, (2) by immunoblots to confirm pSTING, pTBK1, pIRF3, (3) by real-time PCR and ELISA monitoring induction of Type I cytokines in human tumor cell lines, isolated human PBMCs and dendritic cells (hMo-DC). Direct STING binding was demonstrated by (1) Cellular Thermal Shift Assays (CETSA) and (2) in vitro kinase assay. Anti-tumor activity of CRD5500 was demonstrated by multiple routes in syngenic tumors containing human STING. Libraries of linkers were used to permit conjugation of CRD5500 with Trastuzumab. Prior to conjugation, penultimate constructs (Pre-Ab) were screened for their ability to preferentially release CRD5500 in tumor homogenate with reduced plasma exposure. Antibody drug conjugates were synthesized at Abzena, UK and were tested in HER2 expressing cells to assess release of free payload .&lt;br /&gt;RESULTS&lt;br /&gt;Treatment of an isolated cell free system containing purified recombinant STING and TBK1 leads to STING phosphorylation confirming that CRD-5500 is a direct STING binder. Evidence of direct binding also comes from CETSA. CRD-5500 activates all five common hSTING variants with agonist EC50 comparable to CDNs in the pIRF3 reporter assay. Treatment of hSTING transfected cells, human tumor cell lines or hPBMC with CRD5500 leads to phosphorylation of IRF3, TBK1 and STING. CRD-5500 causes the maturation of hDCs and the release of innate and adaptive inflammatory cytokines such as IFNβ and TNFα from hDCs and hPBMCs. In vivo administration of CRD5500 IT or systemically caused tumor regression in CT26 syngeneic tumors containing human STING. CRD5500 demonstrated the abscopal effect and when combined with check point blockade dramatically reduced tumor mass. Interestingly, when Pre-Ab constructs that were not conjugated to antibody were delivered IV, they combined with an anti-CTLA4 antibody to eliminate tumors in the hSTING.CT26 syngenic tumor model. Conjugation with Trastuzumab was demonstrated and the ADC thus formed was screened in HER2 expressing cell lines.&lt;br /&gt;CONCLUSIONS&lt;br /&gt;The ability of hSTING agonists to generate Type 1 IFN anti-tumor immune responses makes them a promising therapeutic option either as a single agent or in combination with other therapies.&lt;br /&gt;CRD5500 is a small molecule STING agonist that can be delivered in multiple formats making it well suited for further development as an anti-cancer agent.</t>
+  </si>
+  <si>
+    <t>Extracellular adenosine signals through the Adenosine 2a Receptor (A2aR) leading to immunosuppression, in part though decreased antigen presentation and decreased effector T cells. AZD4635 inhibits A2aR signaling and leads to improved immune activation and anti-tumor activity in preclinical models. This multicenter Phase I clinical trial (NCT02740985) assessed the safety, PK, pharmacodynamic, and preliminary clinical activity of AZD4635 as monotherapy (125mg BID, 75mg QD, 100mg QD) and in combination (75 or 100mg QD) with durvalumab @ 1.5g IV q4 wk in subjects with refractory solid tumors. Peripheral blood was analyzed for pharmacokinetics. Isolated blood mononuclear cells and tumor biopsies were analyzed by Nanostring technology and TCR sequencing. Thirty-eight adult subjects with advanced malignancies were treated with AZD4635 monotherapy (n=15) or in combination with durvalumab (n=23). All subjects had at least 1 prior regimen (median 3). The maximum tolerated dose (MTD) of AZD4635 was identified as 100 mg PO daily both as monotherapy and with durvalumab. The mean plasma concentration of AZD4635 at the MTD was above the &lt;i&gt;in vitro&lt;/i&gt; IC50 for A2aR inhibition over the dosing interval. Most common adverse events (&gt;15%) attributed to the investigational treatment included Grade 1-2 nausea, fatigue, vomiting, and dizziness. Two dose limiting toxicities (DLT; Gr3 Nausea and Gr2 abdominal pain) were noted at 125mg BID dose and one DLT (Gr2 nausea + Gr2 fatigue requiring dose reduction in week 2) occurred in a subject dosed with 75 mg QD in combination with durvalumab. Three confirmed responses were observed in 8 RECIST evaluable subjects with metastatic castration resistant metastatic prostate cancer (mCRPC) treated with monotherapy AZD4635 (1 PR) or combination with durvalumab (1CR + 1PR). In addition, a durable PSA decrease &gt;99% was observed on AZD4635 monotherapy in 1 of 4 RECIST non-evaluable mCRPC subjects. As of the data cut off (4Oct18), these subjects had 11-16 months of treatment. Other tumor types in subjects with SD for &gt; 6 months of therapy included head &amp; neck, bladder, GI cancers and sarcoma. Biomarker data from blood and tumor samples revealed increased gene expression consistent with dendritic cell activation, antigen presentation and cytotoxic T cell activation. TCR analysis showed changes in T cell repertoire following AZD4635 therapy. AZD4635, an oral antagonist of A2aR, was well tolerated at 100mg daily in patients with refractory solid tumors as both monotherapy and in combination with durvalumab. As in preclinical studies, evaluation of gene expression revealed post-treatment increases in antigen presentation as well as evidence of both innate and adaptive immune activity. Durable responses were seen in patients with mCRPC, Further evaluation is ongoing in both immune checkpoint naïve and refractory patients.</t>
+  </si>
+  <si>
+    <t>Small molecules MYC inhibitors that are efficacious and tolerated &lt;i&gt;in vivo&lt;/i&gt; will provide invaluable chemical probes and potential therapeutic agents. We have used in silico screening coupled to a rapid in vivo screen in mice to develop a series of novel small molecule MYC inhibitors (MYCi) which engage MYC inside cells, disrupt MYC/MAX heterodimerization and inhibit MYC-regulated gene expression. The compounds enhanced MYC phosphorylation on threonine-58, leading to increased proteasome-mediated degradation of MYC. The initial lead, MYCi361, showed excellent &lt;i&gt;in vivo&lt;/i&gt; anti-tumor efficacy in mice, inhibiting proliferation and inducing immunogenic cell death of tumor cells. MYCi361 treatment increased tumor infiltrating lymphocytes and induced tumor PD-L1 expression. Accordingly, treatment with MYCi361 sensitized tumors to anti-PD1 immunotherapy. MYCi361 however showed a narrow therapeutic index. We therefore undertook additional medicinal chemistry optimization, which yielded the related molecule, MYCi975, which combined &lt;i&gt;in vivo&lt;/i&gt; efficacy with remarkable tolerability. These findings support the potential of small molecule MYC inhibitors as chemical probes and possible therapeutic leads.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Background and Objectives: &lt;/b&gt;DV281 is a synthetic CpG-ODN agonist of TLR9 that stimulates dendritic cells to release IFN-alpha and mature into antigen presenting cells to activate T cell anti-tumor responses. Nivolumab is a PD-1 inhibitor that has demonstrated activity in advanced/metastatic NSCLC. Study DV9- NSC-01 (NCT03326752) is a phase 1b/2 study to assess safety and pharmacodynamic activity of DV281 in combination with nivolumab in patients with advanced or metastatic NSCLC and to determine the recommended dose for expansion.&lt;br /&gt;&lt;b&gt;Methods: &lt;/b&gt;Anti-PD-1/L1 experienced or naïve patients were enrolled in 2L or 3L NSCLC in the escalation phase, 3+3 design: 5 dose cohorts, with intra-patient dose escalation between the first 2 monotherapy doses: cohort 1: 1 mg; cohort 2: 1 to 3 mg; cohort 3: 3 to 10 mg; cohort 4: 10 to 15 mg; cohort 5: 15 to 25 mg. Nivolumab was administered at 240 mg Q2w. Safety was primary objective and pharmacodynamic effects including IFN-inducible gene expression were key secondary objective. DV281 is administered via inhalation, first alone, weekly for 2 doses, then 6 doses weekly with nivolumab, followed by a 5 week off period of DV281, while continuing nivolumab, then DV281 with intravenous nivolumab Q2w for an additional 24 weeks.&lt;br /&gt;&lt;b&gt;Preliminary Results from the Escalation phase: &lt;/b&gt;22 patients have been enrolled to date: Cohort (C) 1: 4 patients; C 2: 3 pts; C3: 7 pts; C 4: 7 pts; C 5: 1pt, ongoing. Median age 67 y/o; male 50%; all ECOG PS0-1 (27.3/72.7%); non squamous 15 (68%), squamous 7 (32%); locally advanced 4 (18%), metastatic 18 (82%); PD-L1 expression: positive 12 pts (52%), negative 10 pts (48%); prior lines of therapy - 1 line: 10 pts (45.5%), 2 lines:12 (54.5%). Previous treatment with PD-1/PD-L1 inhibitors: 18 pts (9 as single agent, 9 in combination). Median treatment duration 11.5 weeks (1 to 38). Eighteen patients discontinued DV281: adverse event 2, PD 14, other 2. Safety profile of DV281 alone and combined with nivolumab with a median number of 5 doses (1.0 to 18.0): grade 1/ 2 chills (18%), fatigue (13.6%), flu-like symptoms (4.5%), diarrhea (13.6%) and rash (13.6%); no grade ≥3 DV281/nivolumab treatment related AE; no immune-related AEs. Pharmacodynamic (PD) assessment (IFN-induced genes) shows target engagement in all dose cohorts, with every patient showing evidence of target engagement in cohorts 3 and 4. A dose dependent increase in PD activity appears to begin to plateau at the 15 mg dose.&lt;br /&gt;&lt;b&gt;Conclusions: &lt;/b&gt;In this population of heavily pretreated patients, DV281 in monotherapy and in combination with nivolumab was well tolerated. Target engagement was observed at all dose levels. The expansion phase will use a modified dosing schedule, evaluating several groups of patients: non squamous resistant to PD-1/PD-L1 or to EGFR inhibitors; squamous experienced or naïve to anti PD-1/PD-L1.</t>
   </si>
   <si>
     <t>Pancreatic cancer</t>
@@ -3828,19 +3861,19 @@
         <v>150</v>
       </c>
       <c r="Q2" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="R2" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="S2" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="T2" t="e">
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3">
@@ -3890,22 +3923,22 @@
         <v>757</v>
       </c>
       <c r="P3" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="Q3" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R3" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="S3" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="T3" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="U3" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4">
@@ -3955,22 +3988,22 @@
         <v>758</v>
       </c>
       <c r="P4" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="Q4" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="R4" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="S4" t="e">
         <v>#N/A</v>
       </c>
       <c r="T4" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="U4" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5">
@@ -4020,22 +4053,22 @@
         <v>759</v>
       </c>
       <c r="P5" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="Q5" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="R5" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="S5" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="T5" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U5" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6">
@@ -4085,22 +4118,22 @@
         <v>760</v>
       </c>
       <c r="P6" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="Q6" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="R6" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
       <c r="S6" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="T6" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="U6" t="s">
-        <v>1092</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="7">
@@ -4150,22 +4183,22 @@
         <v>761</v>
       </c>
       <c r="P7" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q7" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="R7" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S7" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="T7" t="e">
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8">
@@ -4215,22 +4248,22 @@
         <v>762</v>
       </c>
       <c r="P8" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="Q8" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="R8" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="S8" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="T8" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U8" t="s">
-        <v>1094</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9">
@@ -4280,22 +4313,22 @@
         <v>763</v>
       </c>
       <c r="P9" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="Q9" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="R9" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="S9" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="T9" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U9" t="s">
-        <v>1095</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10">
@@ -4345,22 +4378,22 @@
         <v>764</v>
       </c>
       <c r="P10" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="Q10" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="R10" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="S10" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="T10" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U10" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="11">
@@ -4410,22 +4443,22 @@
         <v>765</v>
       </c>
       <c r="P11" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="Q11" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R11" t="s">
         <v>157</v>
       </c>
       <c r="S11" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="T11" t="e">
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12">
@@ -4475,22 +4508,22 @@
         <v>766</v>
       </c>
       <c r="P12" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q12" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="R12" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="S12" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13">
@@ -4540,22 +4573,22 @@
         <v>767</v>
       </c>
       <c r="P13" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="Q13" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="R13" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="S13" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
       <c r="T13" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U13" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="14">
@@ -4605,22 +4638,22 @@
         <v>768</v>
       </c>
       <c r="P14" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="Q14" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="R14" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="S14" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="T14" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U14" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="15">
@@ -4670,22 +4703,22 @@
         <v>769</v>
       </c>
       <c r="P15" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="Q15" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="R15" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="S15" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
       <c r="T15" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U15" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16">
@@ -4735,22 +4768,22 @@
         <v>770</v>
       </c>
       <c r="P16" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="Q16" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="R16" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="S16" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="T16" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U16" t="s">
-        <v>1102</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17">
@@ -4800,22 +4833,22 @@
         <v>771</v>
       </c>
       <c r="P17" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q17" t="s">
         <v>161</v>
       </c>
       <c r="R17" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="S17" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>1103</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18">
@@ -4865,22 +4898,22 @@
         <v>772</v>
       </c>
       <c r="P18" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="Q18" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R18" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
       <c r="S18" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="T18" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U18" t="s">
-        <v>1104</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="19">
@@ -4930,10 +4963,10 @@
         <v>773</v>
       </c>
       <c r="P19" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="Q19" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
       <c r="R19" t="s">
         <v>161</v>
@@ -4942,10 +4975,10 @@
         <v>#N/A</v>
       </c>
       <c r="T19" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U19" t="s">
-        <v>1105</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="20">
@@ -4995,22 +5028,22 @@
         <v>774</v>
       </c>
       <c r="P20" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="Q20" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="R20" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="S20" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="T20" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U20" t="s">
-        <v>1106</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21">
@@ -5060,22 +5093,22 @@
         <v>775</v>
       </c>
       <c r="P21" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="Q21" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
       <c r="R21" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="S21" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T21" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="U21" t="s">
-        <v>1107</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22">
@@ -5128,19 +5161,19 @@
         <v>155</v>
       </c>
       <c r="Q22" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R22" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="S22" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>1108</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="23">
@@ -5190,22 +5223,22 @@
         <v>777</v>
       </c>
       <c r="P23" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="Q23" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="R23" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="S23" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>1109</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24">
@@ -5255,22 +5288,22 @@
         <v>778</v>
       </c>
       <c r="P24" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q24" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="R24" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="S24" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>1110</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="25">
@@ -5320,22 +5353,22 @@
         <v>779</v>
       </c>
       <c r="P25" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="Q25" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="R25" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="S25" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
       <c r="T25" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="U25" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="26">
@@ -5385,10 +5418,10 @@
         <v>780</v>
       </c>
       <c r="P26" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="Q26" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="R26" t="s">
         <v>152</v>
@@ -5400,7 +5433,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>1112</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="27">
@@ -5450,22 +5483,22 @@
         <v>781</v>
       </c>
       <c r="P27" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="Q27" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="R27" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="S27" t="e">
         <v>#N/A</v>
       </c>
       <c r="T27" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="U27" t="s">
-        <v>1113</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28">
@@ -5515,22 +5548,22 @@
         <v>782</v>
       </c>
       <c r="P28" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="Q28" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="R28" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="S28" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="T28" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="U28" t="s">
-        <v>1114</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="29">
@@ -5580,22 +5613,22 @@
         <v>783</v>
       </c>
       <c r="P29" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="Q29" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="R29" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="S29" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="T29" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U29" t="s">
-        <v>1115</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="30">
@@ -5645,22 +5678,22 @@
         <v>784</v>
       </c>
       <c r="P30" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="Q30" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R30" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="S30" t="e">
         <v>#N/A</v>
       </c>
       <c r="T30" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U30" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="31">
@@ -5710,22 +5743,22 @@
         <v>785</v>
       </c>
       <c r="P31" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="Q31" t="s">
         <v>170</v>
       </c>
       <c r="R31" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="S31" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="T31" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U31" t="s">
-        <v>1117</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="32">
@@ -5775,22 +5808,22 @@
         <v>786</v>
       </c>
       <c r="P32" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="Q32" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="R32" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="S32" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="T32" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="U32" t="s">
-        <v>1118</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33">
@@ -5840,22 +5873,22 @@
         <v>787</v>
       </c>
       <c r="P33" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="Q33" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R33" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="S33" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>1119</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34">
@@ -5905,22 +5938,22 @@
         <v>788</v>
       </c>
       <c r="P34" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="Q34" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="R34" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="S34" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="35">
@@ -5970,22 +6003,22 @@
         <v>789</v>
       </c>
       <c r="P35" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="Q35" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="R35" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="S35" t="e">
         <v>#N/A</v>
       </c>
       <c r="T35" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U35" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="36">
@@ -6035,22 +6068,22 @@
         <v>790</v>
       </c>
       <c r="P36" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q36" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="R36" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S36" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="T36" t="e">
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>1122</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="37">
@@ -6100,22 +6133,22 @@
         <v>791</v>
       </c>
       <c r="P37" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q37" t="s">
         <v>161</v>
       </c>
       <c r="R37" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="S37" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="T37" t="e">
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>1123</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38">
@@ -6168,19 +6201,19 @@
         <v>174</v>
       </c>
       <c r="Q38" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="R38" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="S38" t="s">
         <v>187</v>
       </c>
       <c r="T38" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U38" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="39">
@@ -6230,22 +6263,22 @@
         <v>793</v>
       </c>
       <c r="P39" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="Q39" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="R39" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="S39" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="T39" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="U39" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="40">
@@ -6295,22 +6328,22 @@
         <v>794</v>
       </c>
       <c r="P40" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
       <c r="Q40" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="R40" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="S40" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="T40" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U40" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="41">
@@ -6360,22 +6393,22 @@
         <v>795</v>
       </c>
       <c r="P41" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="Q41" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="R41" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
       <c r="S41" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="T41" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U41" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="42">
@@ -6425,22 +6458,22 @@
         <v>796</v>
       </c>
       <c r="P42" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="Q42" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="R42" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="S42" t="e">
         <v>#N/A</v>
       </c>
       <c r="T42" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
       <c r="U42" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="43">
@@ -6493,19 +6526,19 @@
         <v>178</v>
       </c>
       <c r="Q43" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="R43" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="S43" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="T43" t="e">
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="44">
@@ -6555,10 +6588,10 @@
         <v>798</v>
       </c>
       <c r="P44" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="Q44" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="R44" t="e">
         <v>#N/A</v>
@@ -6567,10 +6600,10 @@
         <v>#N/A</v>
       </c>
       <c r="T44" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U44" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="45">
@@ -6623,19 +6656,19 @@
         <v>150</v>
       </c>
       <c r="Q45" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R45" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="S45" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="T45" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="U45" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="46">
@@ -6685,22 +6718,22 @@
         <v>800</v>
       </c>
       <c r="P46" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="Q46" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="R46" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="S46" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="T46" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U46" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="47">
@@ -6750,22 +6783,22 @@
         <v>801</v>
       </c>
       <c r="P47" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="Q47" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="R47" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="S47" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="T47" t="e">
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="48">
@@ -6815,22 +6848,22 @@
         <v>802</v>
       </c>
       <c r="P48" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="Q48" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="R48" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="S48" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="T48" t="e">
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="49">
@@ -6880,22 +6913,22 @@
         <v>803</v>
       </c>
       <c r="P49" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
       <c r="Q49" t="s">
         <v>181</v>
       </c>
       <c r="R49" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S49" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="T49" t="e">
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="50">
@@ -6945,22 +6978,22 @@
         <v>804</v>
       </c>
       <c r="P50" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="Q50" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R50" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
       <c r="S50" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="T50" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U50" t="s">
-        <v>1136</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="51">
@@ -7010,22 +7043,22 @@
         <v>805</v>
       </c>
       <c r="P51" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="Q51" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="R51" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="S51" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
       <c r="T51" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U51" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="52">
@@ -7075,22 +7108,22 @@
         <v>806</v>
       </c>
       <c r="P52" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="Q52" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="R52" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="S52" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="T52" t="e">
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="53">
@@ -7140,22 +7173,22 @@
         <v>807</v>
       </c>
       <c r="P53" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
       <c r="Q53" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="R53" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
       <c r="S53" t="e">
         <v>#N/A</v>
       </c>
       <c r="T53" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="U53" t="s">
-        <v>1139</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="54">
@@ -7205,22 +7238,22 @@
         <v>808</v>
       </c>
       <c r="P54" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="Q54" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
       <c r="R54" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="S54" t="s">
         <v>185</v>
       </c>
       <c r="T54" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U54" t="s">
-        <v>1140</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="55">
@@ -7273,7 +7306,7 @@
         <v>161</v>
       </c>
       <c r="Q55" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R55" t="e">
         <v>#N/A</v>
@@ -7285,7 +7318,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="56">
@@ -7335,22 +7368,22 @@
         <v>810</v>
       </c>
       <c r="P56" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="Q56" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="R56" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="S56" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="T56" t="e">
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="57">
@@ -7400,22 +7433,22 @@
         <v>811</v>
       </c>
       <c r="P57" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="Q57" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="R57" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="S57" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="T57" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="U57" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="58">
@@ -7465,22 +7498,22 @@
         <v>812</v>
       </c>
       <c r="P58" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="Q58" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R58" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="S58" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="T58" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U58" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="59">
@@ -7533,19 +7566,19 @@
         <v>187</v>
       </c>
       <c r="Q59" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="R59" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="S59" t="e">
         <v>#N/A</v>
       </c>
       <c r="T59" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U59" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="60">
@@ -7595,22 +7628,22 @@
         <v>814</v>
       </c>
       <c r="P60" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="Q60" t="s">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="R60" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S60" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
       <c r="T60" t="e">
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="61">
@@ -7660,22 +7693,22 @@
         <v>815</v>
       </c>
       <c r="P61" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="Q61" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R61" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="S61" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="T61" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U61" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="62">
@@ -7725,22 +7758,22 @@
         <v>816</v>
       </c>
       <c r="P62" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="Q62" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R62" t="s">
         <v>161</v>
       </c>
       <c r="S62" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="T62" t="e">
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="63">
@@ -7790,22 +7823,22 @@
         <v>817</v>
       </c>
       <c r="P63" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="Q63" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="R63" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="S63" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="T63" t="e">
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="64">
@@ -7858,19 +7891,19 @@
         <v>155</v>
       </c>
       <c r="Q64" t="s">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="R64" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="S64" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="T64" t="e">
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="65">
@@ -7920,22 +7953,22 @@
         <v>819</v>
       </c>
       <c r="P65" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="Q65" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R65" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="S65" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="T65" t="e">
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="66">
@@ -7985,22 +8018,22 @@
         <v>820</v>
       </c>
       <c r="P66" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
       <c r="Q66" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="R66" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S66" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="T66" t="e">
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="67">
@@ -8050,22 +8083,22 @@
         <v>821</v>
       </c>
       <c r="P67" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="Q67" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="R67" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="S67" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="T67" t="e">
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="68">
@@ -8115,22 +8148,22 @@
         <v>822</v>
       </c>
       <c r="P68" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="Q68" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R68" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="S68" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="T68" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="U68" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="69">
@@ -8180,22 +8213,22 @@
         <v>823</v>
       </c>
       <c r="P69" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="Q69" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="R69" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S69" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="T69" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U69" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="70">
@@ -8245,22 +8278,22 @@
         <v>824</v>
       </c>
       <c r="P70" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="Q70" t="s">
         <v>193</v>
       </c>
       <c r="R70" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="S70" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="T70" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U70" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="71">
@@ -8310,22 +8343,22 @@
         <v>825</v>
       </c>
       <c r="P71" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
       <c r="Q71" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="R71" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="S71" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
       <c r="T71" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="U71" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="72">
@@ -8375,22 +8408,22 @@
         <v>826</v>
       </c>
       <c r="P72" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q72" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="R72" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="S72" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="T72" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="U72" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="73">
@@ -8440,22 +8473,22 @@
         <v>827</v>
       </c>
       <c r="P73" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="Q73" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="R73" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="S73" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="T73" t="e">
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="74">
@@ -8505,22 +8538,22 @@
         <v>828</v>
       </c>
       <c r="P74" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
       <c r="Q74" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="R74" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="S74" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="T74" t="e">
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="75">
@@ -8570,22 +8603,22 @@
         <v>829</v>
       </c>
       <c r="P75" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="Q75" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="R75" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="S75" t="e">
         <v>#N/A</v>
       </c>
       <c r="T75" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="U75" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="76">
@@ -8635,22 +8668,22 @@
         <v>830</v>
       </c>
       <c r="P76" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="Q76" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="R76" t="s">
         <v>151</v>
       </c>
       <c r="S76" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
       <c r="T76" t="e">
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77">
@@ -8700,22 +8733,22 @@
         <v>831</v>
       </c>
       <c r="P77" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="Q77" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R77" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="S77" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="T77" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="U77" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="78">
@@ -8765,13 +8798,13 @@
         <v>832</v>
       </c>
       <c r="P78" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="Q78" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="R78" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="S78" t="e">
         <v>#N/A</v>
@@ -8780,7 +8813,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="79">
@@ -8830,22 +8863,22 @@
         <v>833</v>
       </c>
       <c r="P79" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
       <c r="Q79" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="R79" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="S79" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="T79" t="e">
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="80">
@@ -8895,22 +8928,22 @@
         <v>834</v>
       </c>
       <c r="P80" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="Q80" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="R80" t="s">
         <v>151</v>
       </c>
       <c r="S80" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
       <c r="T80" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="U80" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="81">
@@ -8960,10 +8993,10 @@
         <v>835</v>
       </c>
       <c r="P81" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="Q81" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R81" t="e">
         <v>#N/A</v>
@@ -8972,10 +9005,10 @@
         <v>#N/A</v>
       </c>
       <c r="T81" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U81" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82">
@@ -9025,22 +9058,22 @@
         <v>836</v>
       </c>
       <c r="P82" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="Q82" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="R82" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="S82" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="T82" t="e">
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="83">
@@ -9090,10 +9123,10 @@
         <v>837</v>
       </c>
       <c r="P83" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="Q83" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="R83" t="e">
         <v>#N/A</v>
@@ -9102,10 +9135,10 @@
         <v>#N/A</v>
       </c>
       <c r="T83" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="U83" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="84">
@@ -9155,22 +9188,22 @@
         <v>838</v>
       </c>
       <c r="P84" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
       <c r="Q84" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
       <c r="R84" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S84" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="T84" t="e">
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="85">
@@ -9220,22 +9253,22 @@
         <v>839</v>
       </c>
       <c r="P85" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="Q85" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="R85" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="S85" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="T85" t="e">
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="86">
@@ -9288,19 +9321,19 @@
         <v>152</v>
       </c>
       <c r="Q86" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="R86" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="S86" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="T86" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="U86" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="87">
@@ -9350,22 +9383,22 @@
         <v>841</v>
       </c>
       <c r="P87" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q87" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="R87" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S87" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="T87" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U87" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="88">
@@ -9415,22 +9448,22 @@
         <v>842</v>
       </c>
       <c r="P88" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="Q88" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="R88" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="S88" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="T88" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="U88" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="89">
@@ -9480,22 +9513,22 @@
         <v>843</v>
       </c>
       <c r="P89" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q89" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="R89" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S89" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="T89" t="e">
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="90">
@@ -9545,22 +9578,22 @@
         <v>844</v>
       </c>
       <c r="P90" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q90" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R90" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S90" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="T90" t="e">
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="91">
@@ -9610,22 +9643,22 @@
         <v>845</v>
       </c>
       <c r="P91" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="Q91" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="R91" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="S91" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
       <c r="T91" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="U91" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="92">
@@ -9675,22 +9708,22 @@
         <v>846</v>
       </c>
       <c r="P92" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="Q92" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="R92" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="S92" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="T92" t="e">
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="93">
@@ -9740,22 +9773,22 @@
         <v>847</v>
       </c>
       <c r="P93" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="Q93" t="s">
         <v>203</v>
       </c>
       <c r="R93" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="S93" t="e">
         <v>#N/A</v>
       </c>
       <c r="T93" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="U93" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="94">
@@ -9805,22 +9838,22 @@
         <v>848</v>
       </c>
       <c r="P94" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q94" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R94" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="S94" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="T94" t="e">
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="95">
@@ -9870,22 +9903,22 @@
         <v>849</v>
       </c>
       <c r="P95" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q95" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="R95" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
       <c r="S95" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="T95" t="e">
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="96">
@@ -9935,22 +9968,22 @@
         <v>850</v>
       </c>
       <c r="P96" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q96" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="R96" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="S96" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="T96" t="e">
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="97">
@@ -10000,10 +10033,10 @@
         <v>851</v>
       </c>
       <c r="P97" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="Q97" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="R97" t="e">
         <v>#N/A</v>
@@ -10012,10 +10045,10 @@
         <v>#N/A</v>
       </c>
       <c r="T97" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="U97" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="98">
@@ -10065,10 +10098,10 @@
         <v>852</v>
       </c>
       <c r="P98" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="Q98" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="R98" t="e">
         <v>#N/A</v>
@@ -10077,10 +10110,10 @@
         <v>#N/A</v>
       </c>
       <c r="T98" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U98" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="99">
@@ -10130,22 +10163,22 @@
         <v>853</v>
       </c>
       <c r="P99" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q99" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R99" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S99" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="T99" t="e">
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="100">
@@ -10195,22 +10228,22 @@
         <v>854</v>
       </c>
       <c r="P100" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q100" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="R100" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="S100" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="T100" t="e">
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="101">
@@ -10260,22 +10293,22 @@
         <v>855</v>
       </c>
       <c r="P101" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q101" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="R101" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="S101" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="T101" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="U101" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="102">
@@ -10325,7 +10358,7 @@
         <v>856</v>
       </c>
       <c r="P102" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q102" t="e">
         <v>#N/A</v>
@@ -10340,7 +10373,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="103">
@@ -10390,22 +10423,22 @@
         <v>857</v>
       </c>
       <c r="P103" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="Q103" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="R103" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="S103" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="T103" t="e">
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="104">
@@ -10455,22 +10488,22 @@
         <v>858</v>
       </c>
       <c r="P104" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="Q104" t="s">
         <v>155</v>
       </c>
       <c r="R104" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="S104" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="T104" t="e">
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="105">
@@ -10520,22 +10553,22 @@
         <v>859</v>
       </c>
       <c r="P105" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="Q105" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="R105" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="S105" t="e">
         <v>#N/A</v>
       </c>
       <c r="T105" t="s">
-        <v>1083</v>
+        <v>1094</v>
       </c>
       <c r="U105" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="106">
@@ -10585,22 +10618,22 @@
         <v>860</v>
       </c>
       <c r="P106" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q106" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="R106" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="S106" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="T106" t="e">
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="107">
@@ -10650,22 +10683,22 @@
         <v>861</v>
       </c>
       <c r="P107" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="Q107" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="R107" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="S107" t="s">
         <v>154</v>
       </c>
       <c r="T107" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U107" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="108">
@@ -10715,22 +10748,22 @@
         <v>862</v>
       </c>
       <c r="P108" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q108" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R108" t="s">
         <v>152</v>
       </c>
       <c r="S108" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="T108" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="U108" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="109">
@@ -10780,22 +10813,22 @@
         <v>863</v>
       </c>
       <c r="P109" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="Q109" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="R109" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="S109" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="T109" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U109" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="110">
@@ -10848,19 +10881,19 @@
         <v>203</v>
       </c>
       <c r="Q110" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="R110" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="S110" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="T110" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U110" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="111">
@@ -10910,22 +10943,22 @@
         <v>865</v>
       </c>
       <c r="P111" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="Q111" t="s">
         <v>207</v>
       </c>
       <c r="R111" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="S111" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="T111" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="U111" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="112">
@@ -10975,22 +11008,22 @@
         <v>866</v>
       </c>
       <c r="P112" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q112" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="R112" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="S112" t="e">
         <v>#N/A</v>
       </c>
       <c r="T112" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="U112" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="113">
@@ -11040,22 +11073,22 @@
         <v>867</v>
       </c>
       <c r="P113" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="Q113" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="R113" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S113" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="T113" t="e">
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="114">
@@ -11105,22 +11138,22 @@
         <v>868</v>
       </c>
       <c r="P114" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="Q114" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="R114" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="S114" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="T114" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U114" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="115">
@@ -11170,22 +11203,22 @@
         <v>869</v>
       </c>
       <c r="P115" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q115" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="R115" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="S115" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="T115" t="e">
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="116">
@@ -11235,22 +11268,22 @@
         <v>870</v>
       </c>
       <c r="P116" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="Q116" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="R116" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="S116" t="e">
         <v>#N/A</v>
       </c>
       <c r="T116" t="s">
-        <v>1082</v>
+        <v>1093</v>
       </c>
       <c r="U116" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="117">
@@ -11300,22 +11333,22 @@
         <v>871</v>
       </c>
       <c r="P117" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="Q117" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="R117" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="S117" t="e">
         <v>#N/A</v>
       </c>
       <c r="T117" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="U117" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="118">
@@ -11365,22 +11398,22 @@
         <v>872</v>
       </c>
       <c r="P118" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q118" t="s">
         <v>210</v>
       </c>
       <c r="R118" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="S118" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="T118" t="e">
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="119">
@@ -11430,7 +11463,7 @@
         <v>873</v>
       </c>
       <c r="P119" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="Q119" t="e">
         <v>#N/A</v>
@@ -11442,10 +11475,10 @@
         <v>#N/A</v>
       </c>
       <c r="T119" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="U119" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="120">
@@ -11492,25 +11525,25 @@
         <v>745</v>
       </c>
       <c r="O120" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="P120" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="Q120" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="R120" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="S120" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
       <c r="T120" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U120" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="121">
@@ -11557,25 +11590,25 @@
         <v>746</v>
       </c>
       <c r="O121" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="P121" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q121" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="R121" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="S121" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="T121" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="U121" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="122">
@@ -11622,25 +11655,25 @@
         <v>747</v>
       </c>
       <c r="O122" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="P122" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="Q122" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="R122" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="S122" t="e">
         <v>#N/A</v>
       </c>
       <c r="T122" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U122" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="123">
@@ -11687,25 +11720,25 @@
         <v>748</v>
       </c>
       <c r="O123" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="P123" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="Q123" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="R123" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="S123" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="T123" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U123" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="124">
@@ -11752,25 +11785,25 @@
         <v>749</v>
       </c>
       <c r="O124" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="P124" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="Q124" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="R124" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="S124" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="T124" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U124" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="125">
@@ -11817,25 +11850,25 @@
         <v>750</v>
       </c>
       <c r="O125" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="P125" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="Q125" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="R125" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="S125" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="T125" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="U125" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="126">
@@ -11882,10 +11915,10 @@
         <v>751</v>
       </c>
       <c r="O126" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="P126" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="Q126" t="e">
         <v>#N/A</v>
@@ -11897,10 +11930,10 @@
         <v>#N/A</v>
       </c>
       <c r="T126" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="U126" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="127">
@@ -11947,25 +11980,25 @@
         <v>752</v>
       </c>
       <c r="O127" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="P127" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="Q127" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="R127" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="S127" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="T127" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U127" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="128">
@@ -12012,25 +12045,25 @@
         <v>753</v>
       </c>
       <c r="O128" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="P128" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="Q128" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="R128" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="S128" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="T128" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U128" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="129">
@@ -12077,25 +12110,25 @@
         <v>754</v>
       </c>
       <c r="O129" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="P129" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="Q129" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="R129" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="S129" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="T129" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="U129" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="130">
@@ -12142,25 +12175,25 @@
         <v>755</v>
       </c>
       <c r="O130" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="P130" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>1005</v>
+      </c>
+      <c r="R130" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T130" t="s">
         <v>945</v>
       </c>
-      <c r="Q130" t="s">
-        <v>994</v>
-      </c>
-      <c r="R130" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S130" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T130" t="s">
-        <v>934</v>
-      </c>
       <c r="U130" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
